--- a/PEP4.xlsx
+++ b/PEP4.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Skole\TEP4215\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marha\Documents\Skole\TEP4215\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0738C2-64D8-4CB2-A497-01EC7CBAC08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9176D9F6-0FEE-4D1A-8045-22329A7A97D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D572C82-B58D-4E2C-8025-FBCAF0E8304F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4D572C82-B58D-4E2C-8025-FBCAF0E8304F}"/>
   </bookViews>
   <sheets>
-    <sheet name="2. Attempt" sheetId="2" r:id="rId1"/>
-    <sheet name="1. Attempt" sheetId="1" r:id="rId2"/>
+    <sheet name="1. Attempt" sheetId="1" r:id="rId1"/>
+    <sheet name="2. Attempt" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="21">
   <si>
     <t>H1</t>
   </si>
@@ -94,13 +94,19 @@
   </si>
   <si>
     <t>Want mCp,H &lt; mCp,c</t>
+  </si>
+  <si>
+    <t>Match 3</t>
+  </si>
+  <si>
+    <t>Match 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,8 +114,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -140,8 +153,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -164,18 +183,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -194,7 +259,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -509,81 +574,529 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18986D15-F7F2-4E31-A04C-347F78E8F3B6}">
-  <dimension ref="B3:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B29694-47DE-4516-BDDF-5140B2D5F3D5}">
+  <dimension ref="C2:X18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="10" max="10" width="19.44140625" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" customWidth="1"/>
+    <col min="16" max="16" width="18.6640625" customWidth="1"/>
+    <col min="17" max="17" width="14.88671875" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.6640625" customWidth="1"/>
+    <col min="23" max="23" width="15.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
+    <row r="2" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="H3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
         <v>50</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E4" s="3">
         <v>200</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="3">
         <v>70</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+      <c r="H4" s="3">
+        <f>D4*(I4-F4)</f>
+        <v>1500</v>
+      </c>
+      <c r="I4" s="3">
+        <v>100</v>
+      </c>
+      <c r="J4" s="5">
+        <v>750</v>
+      </c>
+      <c r="K4" s="3">
+        <f t="shared" ref="K4:K6" si="0">H4-J4</f>
+        <v>750</v>
+      </c>
+      <c r="L4" s="4">
+        <f>I4-J4/D4</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
+      <c r="D5" s="3">
         <v>10</v>
       </c>
-      <c r="D5" s="3">
+      <c r="E5" s="3">
         <v>300</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F5" s="3">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
+      <c r="H5" s="3">
+        <f>D5*(I5-F5)</f>
+        <v>400</v>
+      </c>
+      <c r="I5" s="3">
+        <v>100</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="L5" s="4">
+        <f t="shared" ref="L5:L6" si="1">I5-J5/D5</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="4">
+      <c r="D6" s="4">
         <v>70</v>
       </c>
-      <c r="D6" s="4">
-        <v>90</v>
-      </c>
       <c r="E6" s="4">
+        <v>90</v>
+      </c>
+      <c r="F6" s="4">
         <v>180</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
+      <c r="H6" s="4">
+        <f>D6*(E6-I6)</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>90</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="4">
+      <c r="D7" s="4">
         <v>15</v>
       </c>
-      <c r="D7" s="4">
+      <c r="E7" s="4">
         <v>40</v>
       </c>
-      <c r="E7" s="4">
+      <c r="F7" s="4">
         <v>220</v>
+      </c>
+      <c r="H7" s="4">
+        <f>D7*(I7-E7)</f>
+        <v>750</v>
+      </c>
+      <c r="I7" s="4">
+        <v>90</v>
+      </c>
+      <c r="J7" s="5">
+        <v>750</v>
+      </c>
+      <c r="K7" s="4">
+        <f>H7-J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
+        <f>I7-J7/D7</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="K8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="2">
+        <f>L4-L7</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="L9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="H11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V11" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="H12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="H13" s="3">
+        <f>D4*(E4-I13)</f>
+        <v>5000</v>
+      </c>
+      <c r="I13" s="3">
+        <v>100</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3">
+        <f>H13-J13</f>
+        <v>5000</v>
+      </c>
+      <c r="L13" s="3">
+        <f>I13+J13/D4</f>
+        <v>100</v>
+      </c>
+      <c r="N13" s="3">
+        <f>K13</f>
+        <v>5000</v>
+      </c>
+      <c r="O13" s="3">
+        <f>L13</f>
+        <v>100</v>
+      </c>
+      <c r="P13" s="5">
+        <v>5000</v>
+      </c>
+      <c r="Q13" s="3">
+        <f>N13-P13</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="6">
+        <f>O13+P13/D4</f>
+        <v>200</v>
+      </c>
+      <c r="T13" s="3">
+        <f>Q13</f>
+        <v>0</v>
+      </c>
+      <c r="U13" s="6">
+        <f>R13</f>
+        <v>200</v>
+      </c>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3">
+        <f>T13-V13</f>
+        <v>0</v>
+      </c>
+      <c r="X13" s="6">
+        <f>U13+V13/D4</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="H14" s="3">
+        <f>D5*(E5-I14)</f>
+        <v>2000</v>
+      </c>
+      <c r="I14" s="3">
+        <v>100</v>
+      </c>
+      <c r="J14" s="5">
+        <v>1950</v>
+      </c>
+      <c r="K14" s="3">
+        <f t="shared" ref="K14:K16" si="2">H14-J14</f>
+        <v>50</v>
+      </c>
+      <c r="L14" s="3">
+        <f>I14+J14/D5</f>
+        <v>295</v>
+      </c>
+      <c r="N14" s="3">
+        <f t="shared" ref="N14:N16" si="3">K14</f>
+        <v>50</v>
+      </c>
+      <c r="O14" s="3">
+        <f t="shared" ref="O14:O16" si="4">L14</f>
+        <v>295</v>
+      </c>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3">
+        <f t="shared" ref="Q14:Q16" si="5">N14-P14</f>
+        <v>50</v>
+      </c>
+      <c r="R14" s="6">
+        <f t="shared" ref="R14:R16" si="6">O14+P14/D5</f>
+        <v>295</v>
+      </c>
+      <c r="T14" s="3">
+        <f t="shared" ref="T14:T17" si="7">Q14</f>
+        <v>50</v>
+      </c>
+      <c r="U14" s="6">
+        <f t="shared" ref="U14:U17" si="8">R14</f>
+        <v>295</v>
+      </c>
+      <c r="V14" s="5">
+        <v>50</v>
+      </c>
+      <c r="W14" s="3">
+        <f t="shared" ref="W14:W16" si="9">T14-V14</f>
+        <v>0</v>
+      </c>
+      <c r="X14" s="6">
+        <f t="shared" ref="X14:X16" si="10">U14+V14/D5</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="H15" s="4">
+        <f>D6*(F6-I15)</f>
+        <v>6300</v>
+      </c>
+      <c r="I15" s="4">
+        <v>90</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4">
+        <f t="shared" si="2"/>
+        <v>6300</v>
+      </c>
+      <c r="L15" s="4">
+        <f t="shared" ref="L15:L16" si="11">I15+J15/D6</f>
+        <v>90</v>
+      </c>
+      <c r="N15" s="4">
+        <f t="shared" si="3"/>
+        <v>6300</v>
+      </c>
+      <c r="O15" s="4">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="P15" s="5">
+        <v>5000</v>
+      </c>
+      <c r="Q15" s="4">
+        <f t="shared" si="5"/>
+        <v>1300</v>
+      </c>
+      <c r="R15" s="7">
+        <f t="shared" si="6"/>
+        <v>161.42857142857144</v>
+      </c>
+      <c r="T15" s="4">
+        <f t="shared" si="7"/>
+        <v>1300</v>
+      </c>
+      <c r="U15" s="7">
+        <f t="shared" si="8"/>
+        <v>161.42857142857144</v>
+      </c>
+      <c r="V15" s="5">
+        <v>50</v>
+      </c>
+      <c r="W15" s="4">
+        <f t="shared" si="9"/>
+        <v>1250</v>
+      </c>
+      <c r="X15" s="7">
+        <f t="shared" si="10"/>
+        <v>162.14285714285717</v>
+      </c>
+    </row>
+    <row r="16" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="H16" s="4">
+        <f>D7*(F7-I16)</f>
+        <v>1950</v>
+      </c>
+      <c r="I16" s="4">
+        <v>90</v>
+      </c>
+      <c r="J16" s="5">
+        <v>1950</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="4">
+        <f t="shared" si="11"/>
+        <v>220</v>
+      </c>
+      <c r="N16" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="4">
+        <f t="shared" si="4"/>
+        <v>220</v>
+      </c>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="7">
+        <f t="shared" si="6"/>
+        <v>220</v>
+      </c>
+      <c r="T16" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U16" s="7">
+        <f t="shared" si="8"/>
+        <v>220</v>
+      </c>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X16" s="7">
+        <f t="shared" si="10"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="17" spans="11:24" x14ac:dyDescent="0.3">
+      <c r="K17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="2">
+        <f>L14-L16</f>
+        <v>75</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R17" s="2">
+        <f>R14-R16</f>
+        <v>75</v>
+      </c>
+      <c r="U17" s="8"/>
+      <c r="W17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="X17" s="9">
+        <f>X14-X15</f>
+        <v>137.85714285714283</v>
+      </c>
+    </row>
+    <row r="18" spans="11:24" x14ac:dyDescent="0.3">
+      <c r="L18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="X18" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -592,298 +1105,452 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B29694-47DE-4516-BDDF-5140B2D5F3D5}">
-  <dimension ref="C2:L16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18986D15-F7F2-4E31-A04C-347F78E8F3B6}">
+  <dimension ref="B2:W16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:F7"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15:K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="10" width="19.42578125" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" customWidth="1"/>
+    <col min="9" max="9" width="18.88671875" customWidth="1"/>
+    <col min="10" max="10" width="13.77734375" customWidth="1"/>
+    <col min="15" max="15" width="18.5546875" customWidth="1"/>
+    <col min="16" max="16" width="13.5546875" customWidth="1"/>
+    <col min="21" max="21" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="U2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="T3" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="U3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="V3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="W3" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>50</v>
+      </c>
+      <c r="D4" s="3">
+        <v>200</v>
+      </c>
+      <c r="E4" s="3">
+        <v>70</v>
+      </c>
+      <c r="G4" s="3">
+        <f>C4*(D4-H4)</f>
+        <v>5000</v>
+      </c>
+      <c r="H4" s="3">
+        <v>100</v>
+      </c>
+      <c r="I4" s="5">
+        <v>5000</v>
+      </c>
+      <c r="J4" s="3">
+        <f>G4-I4</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <f>H4+I4/C4</f>
+        <v>200</v>
+      </c>
+      <c r="M4" s="3">
+        <f>J4</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="3">
+        <f>K4</f>
+        <v>200</v>
+      </c>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3">
+        <f>M4-O4</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3">
+        <f>N4+O4/C4</f>
+        <v>200</v>
+      </c>
+      <c r="S4" s="3">
+        <f>P4</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="3">
+        <f>Q4</f>
+        <v>200</v>
+      </c>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3">
+        <f>S4-U4</f>
+        <v>0</v>
+      </c>
+      <c r="W4" s="3">
+        <f>T4+U4/C4</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3">
+        <v>300</v>
+      </c>
+      <c r="E5" s="3">
+        <v>60</v>
+      </c>
+      <c r="G5" s="3">
+        <f>C5*(D5-H5)</f>
+        <v>2000</v>
+      </c>
+      <c r="H5" s="3">
+        <v>100</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3">
+        <f>G5-I5</f>
+        <v>2000</v>
+      </c>
+      <c r="K5" s="3">
+        <f>H5+I5/C5</f>
+        <v>100</v>
+      </c>
+      <c r="M5" s="3">
+        <f>J5</f>
+        <v>2000</v>
+      </c>
+      <c r="N5" s="3">
+        <f>K5</f>
+        <v>100</v>
+      </c>
+      <c r="O5" s="5">
+        <v>1300</v>
+      </c>
+      <c r="P5" s="3">
+        <f>M5-O5</f>
+        <v>700</v>
+      </c>
+      <c r="Q5" s="3">
+        <f>N5+O5/C5</f>
+        <v>230</v>
+      </c>
+      <c r="S5" s="3">
+        <f>P5</f>
+        <v>700</v>
+      </c>
+      <c r="T5" s="3">
+        <f>Q5</f>
+        <v>230</v>
+      </c>
+      <c r="U5" s="5">
+        <v>700</v>
+      </c>
+      <c r="V5" s="3">
+        <f>S5-U5</f>
+        <v>0</v>
+      </c>
+      <c r="W5" s="3">
+        <f>T5+U5/C5</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4">
+        <v>70</v>
+      </c>
+      <c r="D6" s="4">
+        <v>90</v>
+      </c>
+      <c r="E6" s="4">
+        <v>180</v>
+      </c>
+      <c r="G6" s="4">
+        <f>C6*(E6-H6)</f>
+        <v>6300</v>
+      </c>
+      <c r="H6" s="4">
+        <v>90</v>
+      </c>
+      <c r="I6" s="5">
+        <v>5000</v>
+      </c>
+      <c r="J6" s="4">
+        <f>G6-I6</f>
+        <v>1300</v>
+      </c>
+      <c r="K6" s="7">
+        <f>H6+I6/C6</f>
+        <v>161.42857142857144</v>
+      </c>
+      <c r="M6" s="4">
+        <f>J6</f>
+        <v>1300</v>
+      </c>
+      <c r="N6" s="7">
+        <f>K6</f>
+        <v>161.42857142857144</v>
+      </c>
+      <c r="O6" s="5">
+        <v>1300</v>
+      </c>
+      <c r="P6" s="4">
+        <f>M6-O6</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="4">
+        <f>N6+O6/C6</f>
+        <v>180.00000000000003</v>
+      </c>
+      <c r="S6" s="4">
+        <f>P6</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="7">
+        <f>Q6</f>
+        <v>180.00000000000003</v>
+      </c>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4">
+        <f>S6-U6</f>
+        <v>0</v>
+      </c>
+      <c r="W6" s="4">
+        <f>T6+U6/C6</f>
+        <v>180.00000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4">
+        <v>15</v>
+      </c>
+      <c r="D7" s="4">
+        <v>40</v>
+      </c>
+      <c r="E7" s="4">
+        <v>220</v>
+      </c>
+      <c r="G7" s="4">
+        <f>C7*(E7-H7)</f>
+        <v>1950</v>
+      </c>
+      <c r="H7" s="4">
+        <v>90</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4">
+        <f>G7-I7</f>
+        <v>1950</v>
+      </c>
+      <c r="K7" s="4">
+        <f>H7+I7/C7</f>
+        <v>90</v>
+      </c>
+      <c r="M7" s="4">
+        <f>J7</f>
+        <v>1950</v>
+      </c>
+      <c r="N7" s="4">
+        <f>K7</f>
+        <v>90</v>
+      </c>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4">
+        <f>M7-O7</f>
+        <v>1950</v>
+      </c>
+      <c r="Q7" s="4">
+        <f>N7+O7/C7</f>
+        <v>90</v>
+      </c>
+      <c r="S7" s="4">
+        <f>P7</f>
+        <v>1950</v>
+      </c>
+      <c r="T7" s="4">
+        <f>Q7</f>
+        <v>90</v>
+      </c>
+      <c r="U7" s="5">
+        <v>700</v>
+      </c>
+      <c r="V7" s="4">
+        <f>S7-U7</f>
+        <v>1250</v>
+      </c>
+      <c r="W7" s="7">
+        <f>T7+U7/C7</f>
+        <v>136.66666666666666</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="G11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="5" t="s">
+      <c r="H11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="1" t="s">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="G12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="K12" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>50</v>
-      </c>
-      <c r="E4" s="3">
-        <v>200</v>
-      </c>
-      <c r="F4" s="3">
-        <v>70</v>
-      </c>
-      <c r="H4" s="3">
-        <f>D4*(I4-F4)</f>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="G13" s="3">
+        <f>C4*(H13-E4)</f>
         <v>1500</v>
       </c>
-      <c r="I4" s="3">
+      <c r="H13" s="3">
         <v>100</v>
       </c>
-      <c r="J4" s="5">
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="G14" s="3">
+        <f>C5*(H14-E5)</f>
+        <v>400</v>
+      </c>
+      <c r="H14" s="3">
+        <v>100</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>90</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="G16" s="4">
+        <f>C7*(H16-D7)</f>
         <v>750</v>
       </c>
-      <c r="K4" s="3">
-        <f t="shared" ref="K4:K6" si="0">H4-J4</f>
-        <v>750</v>
-      </c>
-      <c r="L4" s="4">
-        <f>I4-J4/D4</f>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3">
-        <v>10</v>
-      </c>
-      <c r="E5" s="3">
-        <v>300</v>
-      </c>
-      <c r="F5" s="3">
-        <v>60</v>
-      </c>
-      <c r="H5" s="3">
-        <f>D5*(I5-F5)</f>
-        <v>400</v>
-      </c>
-      <c r="I5" s="3">
-        <v>100</v>
-      </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3">
-        <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-      <c r="L5" s="4">
-        <f t="shared" ref="L5:L7" si="1">I5-J5/D5</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="4">
-        <v>70</v>
-      </c>
-      <c r="E6" s="4">
-        <v>90</v>
-      </c>
-      <c r="F6" s="4">
-        <v>180</v>
-      </c>
-      <c r="H6" s="4">
-        <f>D6*(E6-I6)</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
-        <v>90</v>
-      </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L6" s="4">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="4">
-        <v>15</v>
-      </c>
-      <c r="E7" s="4">
-        <v>40</v>
-      </c>
-      <c r="F7" s="4">
-        <v>220</v>
-      </c>
-      <c r="H7" s="4">
-        <f>D7*(I7-E7)</f>
-        <v>750</v>
-      </c>
-      <c r="I7" s="4">
-        <v>90</v>
-      </c>
-      <c r="J7" s="5">
-        <v>750</v>
-      </c>
-      <c r="K7" s="4">
-        <f>H7-J7</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="4">
-        <f>I7-J7/D7</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" s="2">
-        <f>L4-L7</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="L9" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="H11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="H12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="H13" s="3">
-        <f>D4*(E4-I13)</f>
-        <v>5000</v>
-      </c>
-      <c r="I13" s="3">
-        <v>100</v>
-      </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3">
-        <f>H13-J13</f>
-        <v>5000</v>
-      </c>
-      <c r="L13" s="3">
-        <f>I13+J13/D4</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="H14" s="3">
-        <f>D5*(E5-I14)</f>
-        <v>2000</v>
-      </c>
-      <c r="I14" s="3">
-        <v>100</v>
-      </c>
-      <c r="J14" s="5">
-        <v>1950</v>
-      </c>
-      <c r="K14" s="3">
-        <f t="shared" ref="K14:K16" si="2">H14-J14</f>
-        <v>50</v>
-      </c>
-      <c r="L14" s="3">
-        <f>I14+J14/D5</f>
-        <v>295</v>
-      </c>
-    </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="H15" s="4">
-        <f>D6*(F6-I15)</f>
-        <v>6300</v>
-      </c>
-      <c r="I15" s="4">
-        <v>90</v>
-      </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4">
-        <f t="shared" si="2"/>
-        <v>6300</v>
-      </c>
-      <c r="L15" s="4">
-        <f t="shared" ref="L14:L16" si="3">I15+J15/D6</f>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.25">
       <c r="H16" s="4">
-        <f>D7*(F7-I16)</f>
-        <v>1950</v>
-      </c>
-      <c r="I16" s="4">
-        <v>90</v>
-      </c>
-      <c r="J16" s="5">
-        <v>1950</v>
-      </c>
-      <c r="K16" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L16" s="4">
-        <f t="shared" si="3"/>
-        <v>220</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
